--- a/natmiOut/OldD2/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H2">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I2">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J2">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.66064256052288</v>
+        <v>1.664704</v>
       </c>
       <c r="N2">
-        <v>1.66064256052288</v>
+        <v>3.329408</v>
       </c>
       <c r="O2">
-        <v>0.03823649770661616</v>
+        <v>0.03573178976417293</v>
       </c>
       <c r="P2">
-        <v>0.03823649770661616</v>
+        <v>0.02637436895330882</v>
       </c>
       <c r="Q2">
-        <v>3.282065011047741</v>
+        <v>4.426469577152</v>
       </c>
       <c r="R2">
-        <v>3.282065011047741</v>
+        <v>26.558817462912</v>
       </c>
       <c r="S2">
-        <v>0.02230585990676459</v>
+        <v>0.01669438564780359</v>
       </c>
       <c r="T2">
-        <v>0.02230585990676459</v>
+        <v>0.01232246941532924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H3">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I3">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J3">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.782870687464</v>
+        <v>26.69016266666667</v>
       </c>
       <c r="N3">
-        <v>24.782870687464</v>
+        <v>80.070488</v>
       </c>
       <c r="O3">
-        <v>0.5706286233602321</v>
+        <v>0.572887000437862</v>
       </c>
       <c r="P3">
-        <v>0.5706286233602321</v>
+        <v>0.6342895171704658</v>
       </c>
       <c r="Q3">
-        <v>48.98043365276353</v>
+        <v>70.96948950278133</v>
       </c>
       <c r="R3">
-        <v>48.98043365276353</v>
+        <v>638.725405525032</v>
       </c>
       <c r="S3">
-        <v>0.33288514625807</v>
+        <v>0.2676607183979514</v>
       </c>
       <c r="T3">
-        <v>0.33288514625807</v>
+        <v>0.2963488222081783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H4">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I4">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J4">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.919175135164913</v>
+        <v>1.067451333333333</v>
       </c>
       <c r="N4">
-        <v>0.919175135164913</v>
+        <v>3.202354</v>
       </c>
       <c r="O4">
-        <v>0.02116411971077358</v>
+        <v>0.0229121493227341</v>
       </c>
       <c r="P4">
-        <v>0.02116411971077358</v>
+        <v>0.02536789300533437</v>
       </c>
       <c r="Q4">
-        <v>1.816641715601913</v>
+        <v>2.838366972200666</v>
       </c>
       <c r="R4">
-        <v>1.816641715601913</v>
+        <v>25.54530274980599</v>
       </c>
       <c r="S4">
-        <v>0.01234642076637748</v>
+        <v>0.01070487258931846</v>
       </c>
       <c r="T4">
-        <v>0.01234642076637748</v>
+        <v>0.01185222995260937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H5">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I5">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J5">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8209776811667</v>
+        <v>2.531414666666667</v>
       </c>
       <c r="N5">
-        <v>1.8209776811667</v>
+        <v>7.594244</v>
       </c>
       <c r="O5">
-        <v>0.04192823343501825</v>
+        <v>0.05433517110265684</v>
       </c>
       <c r="P5">
-        <v>0.04192823343501825</v>
+        <v>0.06015886102798208</v>
       </c>
       <c r="Q5">
-        <v>3.598948548792015</v>
+        <v>6.731064507057333</v>
       </c>
       <c r="R5">
-        <v>3.598948548792015</v>
+        <v>60.579580563516</v>
       </c>
       <c r="S5">
-        <v>0.02445949177447317</v>
+        <v>0.02538614232911047</v>
       </c>
       <c r="T5">
-        <v>0.02445949177447317</v>
+        <v>0.02810705068965641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H6">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I6">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J6">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.54401370088045</v>
+        <v>2.769714</v>
       </c>
       <c r="N6">
-        <v>2.54401370088045</v>
+        <v>8.309142000000001</v>
       </c>
       <c r="O6">
-        <v>0.05857622606558215</v>
+        <v>0.05945011146419213</v>
       </c>
       <c r="P6">
-        <v>0.05857622606558215</v>
+        <v>0.06582202505473476</v>
       </c>
       <c r="Q6">
-        <v>5.027944335388337</v>
+        <v>7.364705532282001</v>
       </c>
       <c r="R6">
-        <v>5.027944335388337</v>
+        <v>66.28234979053801</v>
       </c>
       <c r="S6">
-        <v>0.03417135906408512</v>
+        <v>0.02777591310534526</v>
       </c>
       <c r="T6">
-        <v>0.03417135906408512</v>
+        <v>0.03075295913346385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H7">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I7">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J7">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7031431429236</v>
+        <v>11.8654315</v>
       </c>
       <c r="N7">
-        <v>11.7031431429236</v>
+        <v>23.730863</v>
       </c>
       <c r="O7">
-        <v>0.2694662997217778</v>
+        <v>0.254683777908382</v>
       </c>
       <c r="P7">
-        <v>0.2694662997217778</v>
+        <v>0.187987334788174</v>
       </c>
       <c r="Q7">
-        <v>23.12988811787329</v>
+        <v>31.5503366091095</v>
       </c>
       <c r="R7">
-        <v>23.12988811787329</v>
+        <v>189.302019654657</v>
       </c>
       <c r="S7">
-        <v>0.1571973870961558</v>
+        <v>0.1189917783213091</v>
       </c>
       <c r="T7">
-        <v>0.1571973870961558</v>
+        <v>0.08783027899160098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H8">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I8">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J8">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.66064256052288</v>
+        <v>1.664704</v>
       </c>
       <c r="N8">
-        <v>1.66064256052288</v>
+        <v>3.329408</v>
       </c>
       <c r="O8">
-        <v>0.03823649770661616</v>
+        <v>0.03573178976417293</v>
       </c>
       <c r="P8">
-        <v>0.03823649770661616</v>
+        <v>0.02637436895330882</v>
       </c>
       <c r="Q8">
-        <v>2.344020322243261</v>
+        <v>5.047714358997333</v>
       </c>
       <c r="R8">
-        <v>2.344020322243261</v>
+        <v>30.286286153984</v>
       </c>
       <c r="S8">
-        <v>0.01593063779985156</v>
+        <v>0.01903740411636935</v>
       </c>
       <c r="T8">
-        <v>0.01593063779985156</v>
+        <v>0.01405189953797958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H9">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I9">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J9">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.782870687464</v>
+        <v>26.69016266666667</v>
       </c>
       <c r="N9">
-        <v>24.782870687464</v>
+        <v>80.070488</v>
       </c>
       <c r="O9">
-        <v>0.5706286233602321</v>
+        <v>0.572887000437862</v>
       </c>
       <c r="P9">
-        <v>0.5706286233602321</v>
+        <v>0.6342895171704658</v>
       </c>
       <c r="Q9">
-        <v>34.98137041402298</v>
+        <v>80.92989344442488</v>
       </c>
       <c r="R9">
-        <v>34.98137041402298</v>
+        <v>728.3690409998239</v>
       </c>
       <c r="S9">
-        <v>0.2377434771021622</v>
+        <v>0.3052262820399107</v>
       </c>
       <c r="T9">
-        <v>0.2377434771021622</v>
+        <v>0.3379406949622875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H10">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I10">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J10">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.919175135164913</v>
+        <v>1.067451333333333</v>
       </c>
       <c r="N10">
-        <v>0.919175135164913</v>
+        <v>3.202354</v>
       </c>
       <c r="O10">
-        <v>0.02116411971077358</v>
+        <v>0.0229121493227341</v>
       </c>
       <c r="P10">
-        <v>0.02116411971077358</v>
+        <v>0.02536789300533437</v>
       </c>
       <c r="Q10">
-        <v>1.297428626572628</v>
+        <v>3.236725221299111</v>
       </c>
       <c r="R10">
-        <v>1.297428626572628</v>
+        <v>29.130526991692</v>
       </c>
       <c r="S10">
-        <v>0.008817698944396098</v>
+        <v>0.01220727673341564</v>
       </c>
       <c r="T10">
-        <v>0.008817698944396098</v>
+        <v>0.01351566305272501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H11">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I11">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J11">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8209776811667</v>
+        <v>2.531414666666667</v>
       </c>
       <c r="N11">
-        <v>1.8209776811667</v>
+        <v>7.594244</v>
       </c>
       <c r="O11">
-        <v>0.04192823343501825</v>
+        <v>0.05433517110265684</v>
       </c>
       <c r="P11">
-        <v>0.04192823343501825</v>
+        <v>0.06015886102798208</v>
       </c>
       <c r="Q11">
-        <v>2.570335599288854</v>
+        <v>7.675753864656889</v>
       </c>
       <c r="R11">
-        <v>2.570335599288854</v>
+        <v>69.08178478191201</v>
       </c>
       <c r="S11">
-        <v>0.01746874166054507</v>
+        <v>0.02894902877354637</v>
       </c>
       <c r="T11">
-        <v>0.01746874166054507</v>
+        <v>0.03205181033832567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H12">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I12">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J12">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.54401370088045</v>
+        <v>2.769714</v>
       </c>
       <c r="N12">
-        <v>2.54401370088045</v>
+        <v>8.309142000000001</v>
       </c>
       <c r="O12">
-        <v>0.05857622606558215</v>
+        <v>0.05945011146419213</v>
       </c>
       <c r="P12">
-        <v>0.05857622606558215</v>
+        <v>0.06582202505473476</v>
       </c>
       <c r="Q12">
-        <v>3.590911106753429</v>
+        <v>8.398324944324001</v>
       </c>
       <c r="R12">
-        <v>3.590911106753429</v>
+        <v>75.58492449891601</v>
       </c>
       <c r="S12">
-        <v>0.02440486700149703</v>
+        <v>0.03167419835884687</v>
       </c>
       <c r="T12">
-        <v>0.02440486700149703</v>
+        <v>0.03506906592127092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.41151405965725</v>
+        <v>3.032199333333333</v>
       </c>
       <c r="H13">
-        <v>1.41151405965725</v>
+        <v>9.096598</v>
       </c>
       <c r="I13">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="J13">
-        <v>0.4166343351340739</v>
+        <v>0.5327861896091618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7031431429236</v>
+        <v>11.8654315</v>
       </c>
       <c r="N13">
-        <v>11.7031431429236</v>
+        <v>23.730863</v>
       </c>
       <c r="O13">
-        <v>0.2694662997217778</v>
+        <v>0.254683777908382</v>
       </c>
       <c r="P13">
-        <v>0.2694662997217778</v>
+        <v>0.187987334788174</v>
       </c>
       <c r="Q13">
-        <v>16.519151088418</v>
+        <v>35.97835348401233</v>
       </c>
       <c r="R13">
-        <v>16.519151088418</v>
+        <v>215.870120904074</v>
       </c>
       <c r="S13">
-        <v>0.112268912625622</v>
+        <v>0.1356919995870728</v>
       </c>
       <c r="T13">
-        <v>0.112268912625622</v>
+        <v>0.1001570557965731</v>
       </c>
     </row>
   </sheetData>
